--- a/data/raw/swsi_data_1981-2011-with-headers.xlsx
+++ b/data/raw/swsi_data_1981-2011-with-headers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unmm-my.sharepoint.com/personal/ehasenbeck_unm_edu/Documents/Spring 2023/Stakeholder Analysis/HasenbeckCoRiverDroughtSensitivity/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8322073-C9ED-5941-8856-952324CECF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{D8322073-C9ED-5941-8856-952324CECF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29CBF8E4-F976-ED45-B63E-6F0148B8FF4A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="12540" windowHeight="15440" xr2:uid="{0316B8F8-5DFB-4BF3-80EB-4B549937392D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25540" windowHeight="15440" xr2:uid="{0316B8F8-5DFB-4BF3-80EB-4B549937392D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -54,42 +54,6 @@
   </si>
   <si>
     <t>Rio Grande</t>
-  </si>
-  <si>
-    <t>Septermber-06</t>
-  </si>
-  <si>
-    <t>Lowest Value</t>
-  </si>
-  <si>
-    <t>of Record</t>
-  </si>
-  <si>
-    <t>Date(s) of </t>
-  </si>
-  <si>
-    <t>7/02, 9/02</t>
-  </si>
-  <si>
-    <t>6/02, 7/02,</t>
-  </si>
-  <si>
-    <t> 8/02, 9/02</t>
-  </si>
-  <si>
-    <t>Highest Value</t>
-  </si>
-  <si>
-    <t>Date(s) of</t>
-  </si>
-  <si>
-    <t>1/84, 3/97</t>
-  </si>
-  <si>
-    <t>9/83,1/84,</t>
-  </si>
-  <si>
-    <t>9/84, 11/84,</t>
   </si>
   <si>
     <t>Yampa, White &amp; N. Platte</t>
@@ -451,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6733FA7-AEC4-4276-A23F-C9818FE9A291}">
   <dimension ref="A1:H378"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="A368" sqref="A368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -474,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -483,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -6598,7 +6562,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>44927</v>
+        <v>36892</v>
       </c>
       <c r="B237">
         <v>-1.3</v>
@@ -6624,7 +6588,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
-        <v>44958</v>
+        <v>36923</v>
       </c>
       <c r="B238">
         <v>-1.8</v>
@@ -6650,7 +6614,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
-        <v>44986</v>
+        <v>36951</v>
       </c>
       <c r="B239">
         <v>-1.6</v>
@@ -6676,7 +6640,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
-        <v>45017</v>
+        <v>36982</v>
       </c>
       <c r="B240">
         <v>-1.6</v>
@@ -6702,7 +6666,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>45047</v>
+        <v>37012</v>
       </c>
       <c r="B241">
         <v>-1.5</v>
@@ -6728,7 +6692,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
-        <v>45078</v>
+        <v>37043</v>
       </c>
       <c r="B242">
         <v>0.9</v>
@@ -6754,7 +6718,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>45108</v>
+        <v>37073</v>
       </c>
       <c r="B243">
         <v>-1.4</v>
@@ -6780,7 +6744,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>45139</v>
+        <v>37104</v>
       </c>
       <c r="B244">
         <v>-1.2</v>
@@ -6806,7 +6770,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>45170</v>
+        <v>37135</v>
       </c>
       <c r="B245">
         <v>-1.7</v>
@@ -6832,7 +6796,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>45200</v>
+        <v>37165</v>
       </c>
       <c r="B246">
         <v>-2.5</v>
@@ -6858,7 +6822,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>45231</v>
+        <v>37196</v>
       </c>
       <c r="B247">
         <v>-2.2000000000000002</v>
@@ -6884,7 +6848,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>45261</v>
+        <v>37226</v>
       </c>
       <c r="B248">
         <v>-1.2</v>
@@ -6910,7 +6874,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>44928</v>
+        <v>37257</v>
       </c>
       <c r="B249">
         <v>-1.5</v>
@@ -6936,7 +6900,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>44959</v>
+        <v>37288</v>
       </c>
       <c r="B250">
         <v>-2.2999999999999998</v>
@@ -6962,7 +6926,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>44987</v>
+        <v>37316</v>
       </c>
       <c r="B251">
         <v>-2.7</v>
@@ -6988,7 +6952,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>45018</v>
+        <v>37347</v>
       </c>
       <c r="B252">
         <v>-2.8</v>
@@ -7014,7 +6978,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>45048</v>
+        <v>37377</v>
       </c>
       <c r="B253">
         <v>-3.1</v>
@@ -7040,7 +7004,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>45079</v>
+        <v>37408</v>
       </c>
       <c r="B254">
         <v>-2.5</v>
@@ -7066,7 +7030,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
-        <v>45109</v>
+        <v>37438</v>
       </c>
       <c r="B255">
         <v>-3.9</v>
@@ -7092,7 +7056,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
-        <v>45140</v>
+        <v>37469</v>
       </c>
       <c r="B256">
         <v>-3.5</v>
@@ -7118,7 +7082,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>45171</v>
+        <v>37500</v>
       </c>
       <c r="B257">
         <v>-3.8</v>
@@ -7144,7 +7108,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>45201</v>
+        <v>37530</v>
       </c>
       <c r="B258">
         <v>-2.9</v>
@@ -7170,7 +7134,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>45232</v>
+        <v>37561</v>
       </c>
       <c r="B259">
         <v>-2.8</v>
@@ -7196,7 +7160,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>45262</v>
+        <v>37591</v>
       </c>
       <c r="B260">
         <v>0.8</v>
@@ -7222,7 +7186,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>44929</v>
+        <v>37622</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -7248,7 +7212,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
-        <v>44960</v>
+        <v>37653</v>
       </c>
       <c r="B262">
         <v>-1.9</v>
@@ -7274,7 +7238,7 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>44988</v>
+        <v>37681</v>
       </c>
       <c r="B263">
         <v>-1.4</v>
@@ -7300,7 +7264,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>45019</v>
+        <v>37712</v>
       </c>
       <c r="B264">
         <v>-0.5</v>
@@ -7326,7 +7290,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>45049</v>
+        <v>37742</v>
       </c>
       <c r="B265">
         <v>-1.7</v>
@@ -7352,7 +7316,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <v>45080</v>
+        <v>37773</v>
       </c>
       <c r="B266">
         <v>-0.4</v>
@@ -7378,7 +7342,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>45110</v>
+        <v>37803</v>
       </c>
       <c r="B267">
         <v>-2.4</v>
@@ -7404,7 +7368,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>45141</v>
+        <v>37834</v>
       </c>
       <c r="B268">
         <v>-2.7</v>
@@ -7430,7 +7394,7 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>45172</v>
+        <v>37865</v>
       </c>
       <c r="B269">
         <v>-3.1</v>
@@ -7456,7 +7420,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>45202</v>
+        <v>37895</v>
       </c>
       <c r="B270">
         <v>-2.4</v>
@@ -7482,7 +7446,7 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>45233</v>
+        <v>37926</v>
       </c>
       <c r="B271">
         <v>-3.4</v>
@@ -7508,7 +7472,7 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>45263</v>
+        <v>37956</v>
       </c>
       <c r="B272">
         <v>-1.2</v>
@@ -7534,7 +7498,7 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>44930</v>
+        <v>37987</v>
       </c>
       <c r="B273">
         <v>-0.2</v>
@@ -7560,7 +7524,7 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>44961</v>
+        <v>38018</v>
       </c>
       <c r="B274">
         <v>-0.8</v>
@@ -7586,7 +7550,7 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>44989</v>
+        <v>38047</v>
       </c>
       <c r="B275">
         <v>-0.3</v>
@@ -7612,7 +7576,7 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>45020</v>
+        <v>38078</v>
       </c>
       <c r="B276">
         <v>-1.6</v>
@@ -7638,7 +7602,7 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>45050</v>
+        <v>38108</v>
       </c>
       <c r="B277">
         <v>0.5</v>
@@ -7664,7 +7628,7 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>45081</v>
+        <v>38139</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -7690,7 +7654,7 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
-        <v>45111</v>
+        <v>38169</v>
       </c>
       <c r="B279">
         <v>-2.2000000000000002</v>
@@ -7716,7 +7680,7 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>45142</v>
+        <v>38200</v>
       </c>
       <c r="B280">
         <v>-1.8</v>
@@ -7742,7 +7706,7 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>45173</v>
+        <v>38231</v>
       </c>
       <c r="B281">
         <v>-3.3</v>
@@ -7768,7 +7732,7 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
-        <v>45203</v>
+        <v>38261</v>
       </c>
       <c r="B282">
         <v>-1.9</v>
@@ -7794,7 +7758,7 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>45234</v>
+        <v>38292</v>
       </c>
       <c r="B283">
         <v>-1</v>
@@ -7820,7 +7784,7 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>45264</v>
+        <v>38322</v>
       </c>
       <c r="B284">
         <v>2.4</v>
@@ -7846,7 +7810,7 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>44931</v>
+        <v>38353</v>
       </c>
       <c r="B285">
         <v>1.7</v>
@@ -7872,7 +7836,7 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>44962</v>
+        <v>38384</v>
       </c>
       <c r="B286">
         <v>1.7</v>
@@ -7898,7 +7862,7 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>44990</v>
+        <v>38412</v>
       </c>
       <c r="B287">
         <v>2.6</v>
@@ -7924,7 +7888,7 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>45021</v>
+        <v>38443</v>
       </c>
       <c r="B288">
         <v>2.6</v>
@@ -7950,7 +7914,7 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>45051</v>
+        <v>38473</v>
       </c>
       <c r="B289">
         <v>2.7</v>
@@ -7976,7 +7940,7 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>45082</v>
+        <v>38504</v>
       </c>
       <c r="B290">
         <v>0.8</v>
@@ -8002,7 +7966,7 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>45112</v>
+        <v>38534</v>
       </c>
       <c r="B291">
         <v>0.1</v>
@@ -8028,7 +7992,7 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>45143</v>
+        <v>38565</v>
       </c>
       <c r="B292">
         <v>-0.1</v>
@@ -8054,7 +8018,7 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
-        <v>45174</v>
+        <v>38596</v>
       </c>
       <c r="B293">
         <v>-1.1000000000000001</v>
@@ -8080,7 +8044,7 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>45204</v>
+        <v>38626</v>
       </c>
       <c r="B294">
         <v>-1.3</v>
@@ -8106,7 +8070,7 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>45235</v>
+        <v>38657</v>
       </c>
       <c r="B295">
         <v>0.1</v>
@@ -8132,7 +8096,7 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>45265</v>
+        <v>38687</v>
       </c>
       <c r="B296">
         <v>-1.8</v>
@@ -8158,7 +8122,7 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>44932</v>
+        <v>38718</v>
       </c>
       <c r="B297">
         <v>2</v>
@@ -8184,7 +8148,7 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>44963</v>
+        <v>38749</v>
       </c>
       <c r="B298">
         <v>1.2</v>
@@ -8210,7 +8174,7 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>44991</v>
+        <v>38777</v>
       </c>
       <c r="B299">
         <v>0.1</v>
@@ -8236,7 +8200,7 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>45022</v>
+        <v>38808</v>
       </c>
       <c r="B300">
         <v>0.7</v>
@@ -8262,7 +8226,7 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>45052</v>
+        <v>38838</v>
       </c>
       <c r="B301">
         <v>-0.3</v>
@@ -8288,7 +8252,7 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>45083</v>
+        <v>38869</v>
       </c>
       <c r="B302">
         <v>1.8</v>
@@ -8314,7 +8278,7 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>45113</v>
+        <v>38899</v>
       </c>
       <c r="B303">
         <v>0</v>
@@ -8340,7 +8304,7 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>45144</v>
+        <v>38930</v>
       </c>
       <c r="B304">
         <v>0.6</v>
@@ -8365,8 +8329,8 @@
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
-        <v>6</v>
+      <c r="A305" s="2">
+        <v>38961</v>
       </c>
       <c r="B305">
         <v>-0.9</v>
@@ -8392,7 +8356,7 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>45205</v>
+        <v>38991</v>
       </c>
       <c r="B306">
         <v>-0.8</v>
@@ -8418,7 +8382,7 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>45236</v>
+        <v>39022</v>
       </c>
       <c r="B307">
         <v>2.2000000000000002</v>
@@ -8444,7 +8408,7 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>45266</v>
+        <v>39052</v>
       </c>
       <c r="B308">
         <v>1.6</v>
@@ -8470,7 +8434,7 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>44933</v>
+        <v>39083</v>
       </c>
       <c r="B309">
         <v>0.5</v>
@@ -8496,7 +8460,7 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>44964</v>
+        <v>39114</v>
       </c>
       <c r="B310">
         <v>-1.1000000000000001</v>
@@ -8522,7 +8486,7 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>44992</v>
+        <v>39142</v>
       </c>
       <c r="B311">
         <v>-0.9</v>
@@ -8548,7 +8512,7 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>45023</v>
+        <v>39173</v>
       </c>
       <c r="B312">
         <v>-1.5</v>
@@ -8574,7 +8538,7 @@
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>45053</v>
+        <v>39203</v>
       </c>
       <c r="B313">
         <v>-1.1000000000000001</v>
@@ -8600,7 +8564,7 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
-        <v>45084</v>
+        <v>39234</v>
       </c>
       <c r="B314">
         <v>0.7</v>
@@ -8626,7 +8590,7 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
-        <v>45114</v>
+        <v>39264</v>
       </c>
       <c r="B315">
         <v>-0.5</v>
@@ -8652,7 +8616,7 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
-        <v>45145</v>
+        <v>39295</v>
       </c>
       <c r="B316">
         <v>-0.3</v>
@@ -8678,7 +8642,7 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
-        <v>45176</v>
+        <v>39326</v>
       </c>
       <c r="B317">
         <v>-1.2</v>
@@ -8704,7 +8668,7 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
-        <v>45206</v>
+        <v>39356</v>
       </c>
       <c r="B318">
         <v>-0.7</v>
@@ -8730,7 +8694,7 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>45237</v>
+        <v>39387</v>
       </c>
       <c r="B319">
         <v>0.1</v>
@@ -8756,7 +8720,7 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>45267</v>
+        <v>39417</v>
       </c>
       <c r="B320">
         <v>-2.6</v>
@@ -8782,7 +8746,7 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>44934</v>
+        <v>39448</v>
       </c>
       <c r="B321">
         <v>2.4</v>
@@ -8808,7 +8772,7 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>44965</v>
+        <v>39479</v>
       </c>
       <c r="B322">
         <v>3.3</v>
@@ -8834,7 +8798,7 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
-        <v>44993</v>
+        <v>39508</v>
       </c>
       <c r="B323">
         <v>3.9</v>
@@ -8860,7 +8824,7 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>45024</v>
+        <v>39539</v>
       </c>
       <c r="B324">
         <v>3.6</v>
@@ -8886,7 +8850,7 @@
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
-        <v>45054</v>
+        <v>39569</v>
       </c>
       <c r="B325">
         <v>3</v>
@@ -8912,7 +8876,7 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>45085</v>
+        <v>39600</v>
       </c>
       <c r="B326">
         <v>2.4</v>
@@ -8938,7 +8902,7 @@
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <v>45115</v>
+        <v>39630</v>
       </c>
       <c r="B327">
         <v>1.8</v>
@@ -8964,7 +8928,7 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>45146</v>
+        <v>39661</v>
       </c>
       <c r="B328">
         <v>2.8</v>
@@ -8990,7 +8954,7 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>45177</v>
+        <v>39692</v>
       </c>
       <c r="B329">
         <v>1.6</v>
@@ -9016,7 +8980,7 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
-        <v>45207</v>
+        <v>39722</v>
       </c>
       <c r="B330">
         <v>-1.5</v>
@@ -9042,7 +9006,7 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>45238</v>
+        <v>39753</v>
       </c>
       <c r="B331">
         <v>-2.2000000000000002</v>
@@ -9068,7 +9032,7 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>45268</v>
+        <v>39783</v>
       </c>
       <c r="B332">
         <v>-2.6</v>
@@ -9094,7 +9058,7 @@
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>44935</v>
+        <v>39814</v>
       </c>
       <c r="B333">
         <v>1.7</v>
@@ -9120,7 +9084,7 @@
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>44966</v>
+        <v>39845</v>
       </c>
       <c r="B334">
         <v>0.8</v>
@@ -9146,7 +9110,7 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
-        <v>44994</v>
+        <v>39873</v>
       </c>
       <c r="B335">
         <v>0.8</v>
@@ -9172,7 +9136,7 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
-        <v>45025</v>
+        <v>39904</v>
       </c>
       <c r="B336">
         <v>0.4</v>
@@ -9198,7 +9162,7 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
-        <v>45055</v>
+        <v>39934</v>
       </c>
       <c r="B337">
         <v>0.2</v>
@@ -9224,7 +9188,7 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
-        <v>45086</v>
+        <v>39965</v>
       </c>
       <c r="B338">
         <v>1.3</v>
@@ -9250,7 +9214,7 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
-        <v>45116</v>
+        <v>39995</v>
       </c>
       <c r="B339">
         <v>1.1000000000000001</v>
@@ -9276,7 +9240,7 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
-        <v>45147</v>
+        <v>40026</v>
       </c>
       <c r="B340">
         <v>0.4</v>
@@ -9302,7 +9266,7 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
-        <v>45178</v>
+        <v>40057</v>
       </c>
       <c r="B341">
         <v>-2.6</v>
@@ -9328,7 +9292,7 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
-        <v>45208</v>
+        <v>40087</v>
       </c>
       <c r="B342">
         <v>-1.8</v>
@@ -9354,7 +9318,7 @@
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
-        <v>45239</v>
+        <v>40118</v>
       </c>
       <c r="B343">
         <v>-1.3</v>
@@ -9380,7 +9344,7 @@
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
-        <v>45269</v>
+        <v>40148</v>
       </c>
       <c r="B344">
         <v>-1.9</v>
@@ -9406,7 +9370,7 @@
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
-        <v>44936</v>
+        <v>40179</v>
       </c>
       <c r="B345">
         <v>-0.4</v>
@@ -9432,7 +9396,7 @@
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>44967</v>
+        <v>40210</v>
       </c>
       <c r="B346">
         <v>-0.7</v>
@@ -9458,7 +9422,7 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
-        <v>44995</v>
+        <v>40238</v>
       </c>
       <c r="B347">
         <v>-0.8</v>
@@ -9484,7 +9448,7 @@
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
-        <v>45026</v>
+        <v>40269</v>
       </c>
       <c r="B348">
         <v>-0.3</v>
@@ -9510,7 +9474,7 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
-        <v>45056</v>
+        <v>40299</v>
       </c>
       <c r="B349">
         <v>-0.8</v>
@@ -9536,7 +9500,7 @@
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>45087</v>
+        <v>40330</v>
       </c>
       <c r="B350">
         <v>-0.4</v>
@@ -9562,7 +9526,7 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>45117</v>
+        <v>40360</v>
       </c>
       <c r="B351">
         <v>0.5</v>
@@ -9588,7 +9552,7 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
-        <v>45148</v>
+        <v>40391</v>
       </c>
       <c r="B352">
         <v>-1.1000000000000001</v>
@@ -9614,7 +9578,7 @@
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
-        <v>45179</v>
+        <v>40422</v>
       </c>
       <c r="B353">
         <v>-1.3</v>
@@ -9640,7 +9604,7 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
-        <v>45209</v>
+        <v>40452</v>
       </c>
       <c r="B354">
         <v>-2.2999999999999998</v>
@@ -9666,7 +9630,7 @@
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
-        <v>45240</v>
+        <v>40483</v>
       </c>
       <c r="B355">
         <v>-1.8</v>
@@ -9692,7 +9656,7 @@
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
-        <v>45270</v>
+        <v>40513</v>
       </c>
       <c r="B356">
         <v>0.1</v>
@@ -9718,7 +9682,7 @@
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>44937</v>
+        <v>40544</v>
       </c>
       <c r="B357">
         <v>3.6</v>
@@ -9744,7 +9708,7 @@
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
-        <v>44968</v>
+        <v>40575</v>
       </c>
       <c r="B358">
         <v>2.2999999999999998</v>
@@ -9770,7 +9734,7 @@
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
-        <v>44996</v>
+        <v>40603</v>
       </c>
       <c r="B359">
         <v>2.5</v>
@@ -9796,7 +9760,7 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>45027</v>
+        <v>40634</v>
       </c>
       <c r="B360">
         <v>2.5</v>
@@ -9822,7 +9786,7 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
-        <v>45057</v>
+        <v>40664</v>
       </c>
       <c r="B361">
         <v>3.5</v>
@@ -9848,7 +9812,7 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
-        <v>45088</v>
+        <v>40695</v>
       </c>
       <c r="B362">
         <v>1.4</v>
@@ -9874,7 +9838,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
-        <v>45118</v>
+        <v>40725</v>
       </c>
       <c r="B363">
         <v>2.2999999999999998</v>
@@ -9900,7 +9864,7 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
-        <v>45149</v>
+        <v>40756</v>
       </c>
       <c r="B364">
         <v>3</v>
@@ -9926,7 +9890,7 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
-        <v>45180</v>
+        <v>40787</v>
       </c>
       <c r="B365">
         <v>1.3</v>
@@ -9952,7 +9916,7 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
-        <v>45210</v>
+        <v>40817</v>
       </c>
       <c r="B366">
         <v>0</v>
@@ -9978,7 +9942,7 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
-        <v>45241</v>
+        <v>40848</v>
       </c>
       <c r="B367">
         <v>0.5</v>
@@ -10004,7 +9968,7 @@
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
-        <v>45271</v>
+        <v>40878</v>
       </c>
       <c r="B368">
         <v>-1</v>
@@ -10028,146 +9992,26 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A370" t="s">
-        <v>7</v>
-      </c>
-      <c r="B370">
-        <v>-3.9</v>
-      </c>
-      <c r="C370">
-        <v>-4.0999999999999996</v>
-      </c>
-      <c r="D370">
-        <v>-3.2</v>
-      </c>
-      <c r="E370">
-        <v>-4.0999999999999996</v>
-      </c>
-      <c r="F370">
-        <v>-3.3</v>
-      </c>
-      <c r="G370">
-        <v>-3.9</v>
-      </c>
-      <c r="H370">
-        <v>-4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A371" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A372" t="s">
-        <v>9</v>
-      </c>
-      <c r="B372" s="2">
-        <v>45109</v>
-      </c>
-      <c r="C372" s="2">
-        <v>45109</v>
-      </c>
-      <c r="D372" t="s">
-        <v>10</v>
-      </c>
-      <c r="E372" s="2">
-        <v>45109</v>
-      </c>
-      <c r="F372" s="2">
-        <v>45020</v>
-      </c>
-      <c r="G372" s="2">
-        <v>45109</v>
-      </c>
-      <c r="H372" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A373" t="s">
-        <v>7</v>
-      </c>
-      <c r="H373" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A374" t="s">
-        <v>13</v>
-      </c>
-      <c r="B374">
-        <v>3.9</v>
-      </c>
-      <c r="C374">
-        <v>4</v>
-      </c>
-      <c r="D374">
-        <v>4</v>
-      </c>
-      <c r="E374">
-        <v>4.2</v>
-      </c>
-      <c r="F374">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G374">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H374">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A375" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A376" t="s">
-        <v>14</v>
-      </c>
-      <c r="B376" t="s">
-        <v>15</v>
-      </c>
-      <c r="C376" t="s">
-        <v>16</v>
-      </c>
-      <c r="D376" s="1">
-        <v>30987</v>
-      </c>
-      <c r="E376" s="1">
-        <v>35704</v>
-      </c>
-      <c r="F376" s="1">
-        <v>30682</v>
-      </c>
-      <c r="G376" s="1">
-        <v>30682</v>
-      </c>
-      <c r="H376" s="1">
-        <v>30682</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A377" t="s">
-        <v>13</v>
-      </c>
-      <c r="B377" s="2">
-        <v>44993</v>
-      </c>
-      <c r="C377" t="s">
-        <v>17</v>
-      </c>
-      <c r="D377" s="1">
-        <v>35674</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C378" s="2">
-        <v>45057</v>
-      </c>
+    <row r="372" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B372" s="2"/>
+      <c r="C372" s="2"/>
+      <c r="E372" s="2"/>
+      <c r="F372" s="2"/>
+      <c r="G372" s="2"/>
+    </row>
+    <row r="376" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D376" s="1"/>
+      <c r="E376" s="1"/>
+      <c r="F376" s="1"/>
+      <c r="G376" s="1"/>
+      <c r="H376" s="1"/>
+    </row>
+    <row r="377" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B377" s="2"/>
+      <c r="D377" s="1"/>
+    </row>
+    <row r="378" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C378" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
